--- a/data/trans_dic/IP19C04-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP19C04-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,81; 21,86</t>
+          <t>5,08; 21,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 12,48</t>
+          <t>1,41; 11,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,92</t>
+          <t>0,0; 14,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,83</t>
+          <t>0,0; 20,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 12,45</t>
+          <t>1,43; 12,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 22,59</t>
+          <t>6,73; 22,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 22,43</t>
+          <t>2,46; 21,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,48</t>
+          <t>0,0; 13,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,39; 14,67</t>
+          <t>4,2; 13,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,03; 15,63</t>
+          <t>5,15; 15,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,44; 11,96</t>
+          <t>1,42; 11,99</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 9,89</t>
+          <t>0,66; 10,41</t>
         </is>
       </c>
     </row>
@@ -864,52 +864,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,53; 9,93</t>
+          <t>4,58; 9,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,25; 9,65</t>
+          <t>4,42; 9,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,7; 7,09</t>
+          <t>2,68; 7,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,32</t>
+          <t>1,79; 5,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 9,2</t>
+          <t>3,8; 9,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 9,55</t>
+          <t>3,89; 9,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 8,42</t>
+          <t>3,86; 8,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,65; 7,73</t>
+          <t>3,02; 7,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 8,29</t>
+          <t>4,7; 8,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,82; 8,65</t>
+          <t>4,89; 8,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,7</t>
+          <t>2,73; 5,54</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 12,07</t>
+          <t>2,72; 12,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,77</t>
+          <t>0,85; 8,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 7,89</t>
+          <t>0,86; 7,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 6,22</t>
+          <t>0,64; 6,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 10,82</t>
+          <t>1,9; 10,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,66</t>
+          <t>0,0; 5,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 8,19</t>
+          <t>0,89; 8,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 8,57</t>
+          <t>1,86; 9,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 9,68</t>
+          <t>3,04; 9,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 5,63</t>
+          <t>0,87; 5,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 6,11</t>
+          <t>1,25; 6,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,89</t>
+          <t>1,66; 5,91</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,45</t>
+          <t>5,12; 9,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,7</t>
+          <t>3,95; 8,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,79</t>
+          <t>2,5; 5,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,93</t>
+          <t>1,91; 4,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,06; 8,41</t>
+          <t>4,0; 8,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,68</t>
+          <t>4,53; 8,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,38</t>
+          <t>3,62; 7,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,74</t>
+          <t>3,05; 6,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 8,14</t>
+          <t>5,18; 8,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,59</t>
+          <t>4,62; 7,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,92</t>
+          <t>3,36; 5,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,09</t>
+          <t>2,84; 5,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C04-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP19C04-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>5,44%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13,56%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>11,27%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>4,63%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>2,58%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,81%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5,44%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>13,56%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>8,36%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,5%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,08; 21,65</t>
+          <t>1,38; 12,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 11,68</t>
+          <t>6,94; 23,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,25</t>
+          <t>2,48; 21,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,18</t>
+          <t>0,0; 12,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 12,61</t>
+          <t>5,24; 21,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,73; 22,77</t>
+          <t>1,4; 12,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 21,87</t>
+          <t>0,0; 12,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,35</t>
+          <t>0,0; 21,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,2; 13,73</t>
+          <t>4,61; 13,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,15; 15,24</t>
+          <t>4,97; 15,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 11,99</t>
+          <t>1,42; 11,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 10,41</t>
+          <t>0,65; 11,13</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6,44%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>6,7%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>6,73%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>4,5%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,29%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,1%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,44%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>5,61%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,12%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 9,62</t>
+          <t>3,98; 9,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 9,94</t>
+          <t>4,09; 9,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,05</t>
+          <t>3,41; 8,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 5,33</t>
+          <t>3,15; 8,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 9,21</t>
+          <t>4,4; 9,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,89; 9,56</t>
+          <t>4,38; 10,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,86; 8,37</t>
+          <t>2,65; 7,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,02; 7,73</t>
+          <t>1,91; 5,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,7; 8,33</t>
+          <t>4,73; 8,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,89</t>
+          <t>4,84; 8,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,76</t>
+          <t>3,61; 6,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,54</t>
+          <t>2,87; 5,9</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5,33%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,52%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>5,91%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>3,38%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>2,67%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,52%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,33%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,77%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>3,52%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 12,42</t>
+          <t>1,86; 10,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 8,37</t>
+          <t>0,0; 6,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,24</t>
+          <t>1,03; 8,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 6,13</t>
+          <t>1,91; 9,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 10,53</t>
+          <t>2,01; 11,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,44</t>
+          <t>0,83; 7,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 8,91</t>
+          <t>0,85; 7,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 9,31</t>
+          <t>0,66; 6,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 9,45</t>
+          <t>3,03; 9,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,19</t>
+          <t>1,13; 4,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 6,28</t>
+          <t>1,25; 6,11</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,91</t>
+          <t>1,8; 6,14</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,85%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>7,08%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>5,73%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>3,92%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,16%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5,85%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,28%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>5,28%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,88%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,12; 9,8</t>
+          <t>4,11; 8,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,25</t>
+          <t>4,5; 8,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,92</t>
+          <t>3,59; 7,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,92</t>
+          <t>3,15; 7,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 8,22</t>
+          <t>5,24; 9,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 8,97</t>
+          <t>3,98; 7,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,52</t>
+          <t>2,4; 5,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,65</t>
+          <t>2,0; 5,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,2</t>
+          <t>5,12; 8,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,62; 7,47</t>
+          <t>4,6; 7,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 5,99</t>
+          <t>3,41; 6,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,05</t>
+          <t>2,8; 5,22</t>
         </is>
       </c>
     </row>
